--- a/medicine/Enfance/Le_Pays_des_contes/Le_Pays_des_contes.xlsx
+++ b/medicine/Enfance/Le_Pays_des_contes/Le_Pays_des_contes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Pays des contes (en anglais : The Land of Stories) est un cycle littéraire créé par Chris Colfer dont le premier tome, Le Sortilège perdu (The Wishing Spell), a été publié en 2012.
-En juin 2017, Chris Colfer annonce sur son compte Twitter l'adaptation cinématographique du cycle littéraire. Il en écrira le scénario et en sera le producteur[1].
+En juin 2017, Chris Colfer annonce sur son compte Twitter l'adaptation cinématographique du cycle littéraire. Il en écrira le scénario et en sera le producteur.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des jumeaux, Alex et Conner ont beaucoup souffert de la mort de leur père et leur mère peut à peine payer toutes ses factures sans lui. Leur grand-mère débarque pour leur douzième anniversaire et leur offre un livre magique qui les transporte au pays des Contes. Ils y rencontreront méchants et gentils, se feront de nouveaux amis et se lieront à ce monde magique. Ils découvrent aussi que leur grand-mère est la bonne fée et qu'ils sont des enfants des deux mondes. Car leur père a vécu au pays des Contes avant de le quitter pour se marier.
 </t>
@@ -544,7 +558,9 @@
           <t>Tomes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Sortilège perdu, Michel Lafon, 2013 ((en) The Wishing Spell, Little, Brown Books for Young Readers, 2012), 478 p.  (ISBN 978-2749919768)
 Le Retour de l'enchanteresse, Michel Lafon, 2014 ((en) The Enchantress Returns, Little, Brown Books for Young Readers, 2013), 521 p.  (ISBN 978-2749922157)
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Autres livres
-En complément de la série, Chris Colfer écrit plusieurs livres « compagnons » :
+          <t>Autres livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En complément de la série, Chris Colfer écrit plusieurs livres « compagnons » :
 (en) The Land of Stories: A Treasury of Classic Fairy Tales, Little, Brown, 2016, 336 p.
 (en) The Curvy Tree, Little, Brown, 2015, livre illustré, 32 p.
 (en) Trollbella Throws a Party, Little, Brown, 2017, livre illustré, 32 p.
